--- a/src/test/resources/files/1.xlsx
+++ b/src/test/resources/files/1.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>abcdefghij</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -359,8 +369,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>123456789</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/files/1.xlsx
+++ b/src/test/resources/files/1.xlsx
@@ -357,19 +357,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
